--- a/classification/droptc/neo-bert/unfreeze/24677315/prediction.xlsx
+++ b/classification/droptc/neo-bert/unfreeze/24677315/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9996522665023804</v>
+        <v>0.9869928359985352</v>
       </c>
     </row>
     <row r="3">
@@ -506,19 +506,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9271212816238403</v>
+        <v>0.9939414262771606</v>
       </c>
     </row>
     <row r="4">
@@ -534,7 +534,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9987146854400635</v>
+        <v>0.9994140863418579</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9783031344413757</v>
+        <v>0.9994819760322571</v>
       </c>
     </row>
     <row r="6">
@@ -590,19 +590,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9987210631370544</v>
+        <v>0.999983549118042</v>
       </c>
     </row>
     <row r="7">
@@ -618,19 +618,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999291896820068</v>
+        <v>0.9998672008514404</v>
       </c>
     </row>
     <row r="8">
@@ -646,7 +646,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8623100519180298</v>
+        <v>0.9997184872627258</v>
       </c>
     </row>
     <row r="9">
@@ -674,19 +674,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9966565370559692</v>
+        <v>0.6673754453659058</v>
       </c>
     </row>
     <row r="10">
@@ -702,19 +702,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999639987945557</v>
+        <v>0.9993242025375366</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9989984631538391</v>
+        <v>0.9999508857727051</v>
       </c>
     </row>
     <row r="12">
@@ -758,19 +758,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.997958779335022</v>
+        <v>0.9999920129776001</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.998264491558075</v>
+        <v>0.9991717338562012</v>
       </c>
     </row>
     <row r="14">
@@ -814,19 +814,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9867041110992432</v>
+        <v>0.4765836596488953</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9988664388656616</v>
+        <v>0.9989123344421387</v>
       </c>
     </row>
     <row r="16">
@@ -870,19 +870,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9977439641952515</v>
+        <v>0.9999853372573853</v>
       </c>
     </row>
     <row r="17">
@@ -898,19 +898,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9966565370559692</v>
+        <v>0.5934784412384033</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.991787850856781</v>
+        <v>0.9999991655349731</v>
       </c>
     </row>
     <row r="19">
@@ -954,19 +954,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9998284578323364</v>
+        <v>0.9983252882957458</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999291896820068</v>
+        <v>0.9999992847442627</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999747276306152</v>
+        <v>0.9993925094604492</v>
       </c>
     </row>
     <row r="22">
@@ -1038,19 +1038,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8866507411003113</v>
+        <v>0.9999959468841553</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9995651841163635</v>
+        <v>0.9998243451118469</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9978604912757874</v>
+        <v>0.6863850355148315</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9991394281387329</v>
+        <v>0.999665379524231</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9988664388656616</v>
+        <v>0.9999970197677612</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9999459981918335</v>
+        <v>0.9999514818191528</v>
       </c>
     </row>
     <row r="28">
@@ -1206,19 +1206,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9998668432235718</v>
+        <v>0.999860405921936</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9998117089271545</v>
+        <v>0.9997639060020447</v>
       </c>
     </row>
     <row r="30">
@@ -1262,19 +1262,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E30" t="b">
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8016452789306641</v>
+        <v>0.9999891519546509</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9998998641967773</v>
+        <v>0.9999055862426758</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9998568296432495</v>
+        <v>0.9999799728393555</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9999856948852539</v>
+        <v>0.6999039649963379</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9999291896820068</v>
+        <v>0.9447718858718872</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9999291896820068</v>
+        <v>0.9999841451644897</v>
       </c>
     </row>
     <row r="36">
@@ -1430,19 +1430,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E36" t="b">
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9997215867042542</v>
+        <v>0.9998794794082642</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9835020899772644</v>
+        <v>0.7459308505058289</v>
       </c>
     </row>
     <row r="38">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1495,10 +1495,10 @@
         </is>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9991154074668884</v>
+        <v>0.9999306201934814</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9871035218238831</v>
+        <v>0.9999799728393555</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9984978437423706</v>
+        <v>0.9999454021453857</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9991815686225891</v>
+        <v>0.9999704360961914</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9987428784370422</v>
+        <v>0.9999953508377075</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9998189806938171</v>
+        <v>0.999996542930603</v>
       </c>
     </row>
     <row r="44">
@@ -1659,14 +1659,14 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.94338458776474</v>
+        <v>0.9999799728393555</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9854249358177185</v>
+        <v>0.9999306201934814</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.999839186668396</v>
+        <v>0.9999374151229858</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9999244213104248</v>
+        <v>0.9999915361404419</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9998437166213989</v>
+        <v>0.9893039464950562</v>
       </c>
     </row>
     <row r="49">
@@ -1794,19 +1794,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E49" t="b">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.990211009979248</v>
+        <v>0.9999837875366211</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9978651404380798</v>
+        <v>0.9999691247940063</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9992826581001282</v>
+        <v>0.9998517036437988</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9999399185180664</v>
+        <v>0.9999874830245972</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.6970495581626892</v>
+        <v>0.9999963045120239</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E54" t="b">
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9998337030410767</v>
+        <v>0.9998243451118469</v>
       </c>
     </row>
     <row r="55">
@@ -1962,19 +1962,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E55" t="b">
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9983127117156982</v>
+        <v>0.99996018409729</v>
       </c>
     </row>
     <row r="56">
@@ -1990,19 +1990,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E56" t="b">
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9994599223136902</v>
+        <v>0.9996434450149536</v>
       </c>
     </row>
     <row r="57">
@@ -2018,19 +2018,19 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E57" t="b">
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9902021884918213</v>
+        <v>0.9993568062782288</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9934670329093933</v>
+        <v>0.9999841451644897</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9608821868896484</v>
+        <v>0.9998437166213989</v>
       </c>
     </row>
     <row r="60">
@@ -2102,19 +2102,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E60" t="b">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9988664388656616</v>
+        <v>0.9999754428863525</v>
       </c>
     </row>
     <row r="61">
@@ -2130,19 +2130,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E61" t="b">
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9433456659317017</v>
+        <v>0.999665379524231</v>
       </c>
     </row>
     <row r="62">
@@ -2158,19 +2158,19 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E62" t="b">
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.8803682923316956</v>
+        <v>0.8140033483505249</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9998032450675964</v>
+        <v>0.7858870625495911</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9998117089271545</v>
+        <v>0.9999948740005493</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9982220530509949</v>
+        <v>0.9999954700469971</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9999291896820068</v>
+        <v>0.9998592138290405</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9999291896820068</v>
+        <v>0.9982922673225403</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9886080026626587</v>
+        <v>0.9993525147438049</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9929821491241455</v>
+        <v>0.9999916553497314</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9999322891235352</v>
+        <v>0.9999951124191284</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9949971437454224</v>
+        <v>0.9999767541885376</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.7051376700401306</v>
+        <v>0.9999831914901733</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9999237060546875</v>
+        <v>0.9983333945274353</v>
       </c>
     </row>
     <row r="74">
@@ -2494,19 +2494,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9613185524940491</v>
+        <v>0.9943720102310181</v>
       </c>
     </row>
     <row r="75">
@@ -2522,19 +2522,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E75" t="b">
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9998800754547119</v>
+        <v>0.9981938004493713</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9998406171798706</v>
+        <v>0.9356327056884766</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.999742329120636</v>
+        <v>0.5207167863845825</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9999420642852783</v>
+        <v>0.9999957084655762</v>
       </c>
     </row>
     <row r="79">
@@ -2634,19 +2634,19 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E79" t="b">
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9997956156730652</v>
+        <v>0.999891996383667</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9998284578323364</v>
+        <v>0.9998562335968018</v>
       </c>
     </row>
     <row r="81">
@@ -2690,19 +2690,19 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E81" t="b">
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9996044039726257</v>
+        <v>0.9991445541381836</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.365069180727005</v>
+        <v>0.9998430013656616</v>
       </c>
     </row>
     <row r="83">
@@ -2746,19 +2746,19 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E83" t="b">
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9992826581001282</v>
+        <v>0.9999799728393555</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.981438934803009</v>
+        <v>0.9999809265136719</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9964543581008911</v>
+        <v>0.5015515685081482</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9992719292640686</v>
+        <v>0.9999465942382812</v>
       </c>
     </row>
     <row r="87">
@@ -2858,19 +2858,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E87" t="b">
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9164227843284607</v>
+        <v>0.9981427192687988</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9964052438735962</v>
+        <v>0.9999703168869019</v>
       </c>
     </row>
     <row r="89">
@@ -2914,19 +2914,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E89" t="b">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9990859031677246</v>
+        <v>0.9999985694885254</v>
       </c>
     </row>
     <row r="90">
@@ -2942,19 +2942,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E90" t="b">
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9999291896820068</v>
+        <v>0.9997953772544861</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9994877576828003</v>
+        <v>0.999702513217926</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.8734800219535828</v>
+        <v>0.999929666519165</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.995267927646637</v>
+        <v>0.9999047517776489</v>
       </c>
     </row>
     <row r="94">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E94" t="b">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9999103546142578</v>
+        <v>0.999665379524231</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9979019165039062</v>
+        <v>0.9999854564666748</v>
       </c>
     </row>
     <row r="96">
@@ -3110,19 +3110,19 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E96" t="b">
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9769895076751709</v>
+        <v>0.9999874830245972</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.999424934387207</v>
+        <v>0.9999703168869019</v>
       </c>
     </row>
     <row r="98">
@@ -3166,19 +3166,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E98" t="b">
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9998998641967773</v>
+        <v>0.4956572353839874</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9995809197425842</v>
+        <v>0.9999703168869019</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9994891881942749</v>
+        <v>0.9997270703315735</v>
       </c>
     </row>
     <row r="101">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>ParamViolation</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Normal</t>
         </is>
       </c>
       <c r="E101" t="b">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9667160511016846</v>
+        <v>0.5638902187347412</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9962418079376221</v>
+        <v>0.9998672008514404</v>
       </c>
     </row>
     <row r="103">
@@ -3311,14 +3311,14 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.7484186291694641</v>
+        <v>0.9999880790710449</v>
       </c>
     </row>
     <row r="104">
@@ -3334,19 +3334,19 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E104" t="b">
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9997053742408752</v>
+        <v>0.9993568062782288</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9972656965255737</v>
+        <v>0.9999799728393555</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9946358799934387</v>
+        <v>0.9999456405639648</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9979436993598938</v>
+        <v>0.9992566704750061</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9979774355888367</v>
+        <v>0.9994070529937744</v>
       </c>
     </row>
     <row r="109">
@@ -3474,19 +3474,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.990211009979248</v>
+        <v>0.9881884455680847</v>
       </c>
     </row>
     <row r="110">
@@ -3502,19 +3502,19 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E110" t="b">
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.8441572785377502</v>
+        <v>0.9999773502349854</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9989318251609802</v>
+        <v>0.9999402761459351</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9987112283706665</v>
+        <v>0.999927282333374</v>
       </c>
     </row>
     <row r="113">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3595,10 +3595,10 @@
         </is>
       </c>
       <c r="E113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.7263641357421875</v>
+        <v>0.9996742010116577</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0.993446409702301</v>
+        <v>0.9997020363807678</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9999291896820068</v>
+        <v>0.9750683903694153</v>
       </c>
     </row>
     <row r="116">
@@ -3670,19 +3670,19 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E116" t="b">
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9998930692672729</v>
+        <v>0.9994819760322571</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9984679818153381</v>
+        <v>0.9999934434890747</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.997928261756897</v>
+        <v>0.9993525147438049</v>
       </c>
     </row>
     <row r="119">
@@ -3754,19 +3754,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E119" t="b">
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9947073459625244</v>
+        <v>0.999860405921936</v>
       </c>
     </row>
     <row r="120">
@@ -3782,19 +3782,19 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E120" t="b">
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9919496774673462</v>
+        <v>0.9846862554550171</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9999169111251831</v>
+        <v>0.9999904632568359</v>
       </c>
     </row>
     <row r="122">
@@ -3838,19 +3838,19 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E122" t="b">
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9817805886268616</v>
+        <v>0.9998841285705566</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9955788254737854</v>
+        <v>0.9676432609558105</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9998288154602051</v>
+        <v>0.9999446868896484</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9854795336723328</v>
+        <v>0.9996269941329956</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9659229516983032</v>
+        <v>0.999830961227417</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E127" t="b">
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9990859031677246</v>
+        <v>0.9999443292617798</v>
       </c>
     </row>
     <row r="128">
@@ -4006,19 +4006,19 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E128" t="b">
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9995686411857605</v>
+        <v>0.9997040629386902</v>
       </c>
     </row>
     <row r="129">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E129" t="b">
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9962093830108643</v>
+        <v>0.9992945194244385</v>
       </c>
     </row>
     <row r="130">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9151076674461365</v>
+        <v>0.9999608993530273</v>
       </c>
     </row>
     <row r="131">
@@ -4090,19 +4090,19 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E131" t="b">
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9942479133605957</v>
+        <v>0.9991016387939453</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9998181462287903</v>
+        <v>0.9999397993087769</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9996953010559082</v>
+        <v>0.9998672008514404</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9993066787719727</v>
+        <v>0.9998425245285034</v>
       </c>
     </row>
     <row r="135">
@@ -4202,19 +4202,19 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E135" t="b">
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9999743700027466</v>
+        <v>0.9994043111801147</v>
       </c>
     </row>
     <row r="136">
@@ -4230,19 +4230,19 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
-        </is>
-      </c>
       <c r="E136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9942479133605957</v>
+        <v>0.9052793383598328</v>
       </c>
     </row>
     <row r="137">
@@ -4258,19 +4258,19 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9181956648826599</v>
+        <v>0.9999923706054688</v>
       </c>
     </row>
     <row r="138">
@@ -4286,19 +4286,19 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E138" t="b">
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.7616707682609558</v>
+        <v>0.9955838322639465</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9998902082443237</v>
+        <v>0.9988566637039185</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9975969195365906</v>
+        <v>0.9997039437294006</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9999164342880249</v>
+        <v>0.9999755620956421</v>
       </c>
     </row>
     <row r="142">
@@ -4398,19 +4398,19 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E142" t="b">
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9970490336418152</v>
+        <v>0.9992594122886658</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.6852693557739258</v>
+        <v>0.9995880722999573</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9999889135360718</v>
+        <v>0.9999579191207886</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9947705864906311</v>
+        <v>0.9999434947967529</v>
       </c>
     </row>
     <row r="146">
@@ -4515,14 +4515,14 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9016216993331909</v>
+        <v>0.9999963045120239</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9982220530509949</v>
+        <v>0.9999319314956665</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.468117356300354</v>
+        <v>0.9555214643478394</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9999291896820068</v>
+        <v>0.9991016387939453</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9973075389862061</v>
+        <v>0.9999945163726807</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.99702388048172</v>
+        <v>0.9998464584350586</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9995935559272766</v>
+        <v>0.9999908208847046</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9997546076774597</v>
+        <v>0.9997497200965881</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.8608585000038147</v>
+        <v>0.9984788298606873</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.7389373779296875</v>
+        <v>0.9998533725738525</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.5537098050117493</v>
+        <v>0.9999850988388062</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.999771773815155</v>
+        <v>0.9992675185203552</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9990679621696472</v>
+        <v>0.9999799728393555</v>
       </c>
     </row>
     <row r="159">
@@ -4874,19 +4874,19 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E159" t="b">
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9993476271629333</v>
+        <v>0.9996975660324097</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9994476437568665</v>
+        <v>0.9999985694885254</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9977141618728638</v>
+        <v>0.9999948740005493</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9999444484710693</v>
+        <v>0.9999973773956299</v>
       </c>
     </row>
     <row r="163">
@@ -4986,19 +4986,19 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E163" t="b">
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.997980535030365</v>
+        <v>0.9989919066429138</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9998471736907959</v>
+        <v>0.8287801742553711</v>
       </c>
     </row>
     <row r="165">
@@ -5042,19 +5042,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E165" t="b">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9979547262191772</v>
+        <v>0.9999920129776001</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9968202114105225</v>
+        <v>0.9999977350234985</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.999861478805542</v>
+        <v>0.9999977350234985</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E168" t="b">
         <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9986975193023682</v>
+        <v>0.9993925094604492</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9997230172157288</v>
+        <v>0.891815185546875</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9977439641952515</v>
+        <v>0.9996867179870605</v>
       </c>
     </row>
     <row r="171">
@@ -5210,19 +5210,19 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
         <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9810361862182617</v>
+        <v>0.6211696863174438</v>
       </c>
     </row>
     <row r="172">
@@ -5238,19 +5238,19 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E172" t="b">
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9999713897705078</v>
+        <v>0.9993067979812622</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E173" t="b">
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.6137410402297974</v>
+        <v>0.9994418025016785</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9988037347793579</v>
+        <v>0.9995771050453186</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9949170351028442</v>
+        <v>0.9999643564224243</v>
       </c>
     </row>
     <row r="176">
@@ -5355,14 +5355,14 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9015069603919983</v>
+        <v>0.9998425245285034</v>
       </c>
     </row>
     <row r="177">
@@ -5378,19 +5378,19 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E177" t="b">
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9685162901878357</v>
+        <v>0.8537012934684753</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9998284578323364</v>
+        <v>0.9999970197677612</v>
       </c>
     </row>
     <row r="179">
@@ -5434,19 +5434,19 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E179" t="b">
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9994334578514099</v>
+        <v>0.9996603727340698</v>
       </c>
     </row>
     <row r="180">
@@ -5462,19 +5462,19 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E180" t="b">
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9991377592086792</v>
+        <v>0.9999799728393555</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9855432510375977</v>
+        <v>0.6004341840744019</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9970995187759399</v>
+        <v>0.9999799728393555</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9972635507583618</v>
+        <v>0.9998842477798462</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9987112283706665</v>
+        <v>0.9999977350234985</v>
       </c>
     </row>
     <row r="185">
@@ -5602,19 +5602,19 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9999597072601318</v>
+        <v>0.9355481266975403</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9034813046455383</v>
+        <v>0.999988317489624</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9966365098953247</v>
+        <v>0.9999284744262695</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9984063506126404</v>
+        <v>0.9999772310256958</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E189" t="b">
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9987112283706665</v>
+        <v>0.9996305704116821</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9985387325286865</v>
+        <v>0.9996730089187622</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9992690682411194</v>
+        <v>0.999991774559021</v>
       </c>
     </row>
     <row r="192">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E192" t="b">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9962908029556274</v>
+        <v>0.9999412298202515</v>
       </c>
     </row>
     <row r="193">
@@ -5831,14 +5831,14 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>0.990448534488678</v>
+        <v>0.9979252815246582</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9990859031677246</v>
+        <v>0.9999923706054688</v>
       </c>
     </row>
     <row r="195">
@@ -5887,14 +5887,14 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.8784424662590027</v>
+        <v>0.9993743300437927</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9999458789825439</v>
+        <v>0.9999454021453857</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9992678761482239</v>
+        <v>0.9958803653717041</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9999281167984009</v>
+        <v>0.9999669790267944</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9146106839179993</v>
+        <v>0.999467670917511</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9998410940170288</v>
+        <v>0.9999973773956299</v>
       </c>
     </row>
     <row r="201">
@@ -6055,14 +6055,14 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>0.998324453830719</v>
+        <v>0.9981986880302429</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9997419714927673</v>
+        <v>0.9999958276748657</v>
       </c>
     </row>
     <row r="203">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6115,10 +6115,10 @@
         </is>
       </c>
       <c r="E203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.8850609660148621</v>
+        <v>0.9999923706054688</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9986975193023682</v>
+        <v>0.9999852180480957</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9981550574302673</v>
+        <v>0.9999834299087524</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E206" t="b">
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9992048144340515</v>
+        <v>0.9999799728393555</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>0.4708924889564514</v>
+        <v>0.981164276599884</v>
       </c>
     </row>
     <row r="208">
@@ -6246,7 +6246,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6255,10 +6255,10 @@
         </is>
       </c>
       <c r="E208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9998782873153687</v>
+        <v>0.5588522553443909</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9998668432235718</v>
+        <v>0.9999872446060181</v>
       </c>
     </row>
     <row r="210">
@@ -6302,19 +6302,19 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.8443999886512756</v>
+        <v>0.999860405921936</v>
       </c>
     </row>
   </sheetData>
